--- a/docs/schemes/Без имени 2.xlsx
+++ b/docs/schemes/Без имени 2.xlsx
@@ -14,17 +14,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -35,6 +24,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -57,15 +47,17 @@
       <color rgb="FF1C1C1C"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +68,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,7 +145,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,14 +212,14 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -225,7 +241,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -272,154 +288,150 @@
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/schemes/Без имени 2.xlsx
+++ b/docs/schemes/Без имени 2.xlsx
@@ -12,6 +12,14 @@
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="1">
+  <si>
+    <t>x</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,7 +65,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,7 +75,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -78,12 +86,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3399FF"/>
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCCC"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -106,6 +144,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -132,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,19 +190,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,7 +255,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -194,8 +263,8 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF0066FF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -241,7 +310,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -287,151 +356,195 @@
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/schemes/Без имени 2.xlsx
+++ b/docs/schemes/Без имени 2.xlsx
@@ -14,14 +14,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="1">
-  <si>
-    <t>x</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -65,7 +57,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,68 +72,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0066FF"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCCC"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double">
-        <color rgb="FF00CCCC"/>
-      </left>
-      <right style="double">
-        <color rgb="FF00CCCC"/>
-      </right>
-      <top style="double">
-        <color rgb="FF00CCCC"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF00CCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -177,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,7 +143,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,31 +155,7 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -255,15 +184,15 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066FF"/>
+      <rgbColor rgb="FFFF66CC"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -273,22 +202,22 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCCC"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFCCFF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3399FF"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -310,7 +239,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -356,195 +285,151 @@
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/schemes/Без имени 2.xlsx
+++ b/docs/schemes/Без имени 2.xlsx
@@ -24,7 +24,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -47,17 +46,15 @@
       <color rgb="FF1C1C1C"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,7 +70,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFCFE7F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -86,6 +95,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
         <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,11 +172,35 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,12 +229,12 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF66CC"/>
       <rgbColor rgb="FF0066CC"/>
@@ -217,9 +262,9 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF1C1C1C"/>
       <rgbColor rgb="FF993300"/>
@@ -236,16 +281,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="23" min="13" style="0" width="5.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -278,6 +325,37 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W1" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -295,6 +373,19 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -303,13 +394,26 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
+      <c r="M3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -318,13 +422,26 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
+      <c r="M4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -333,13 +450,26 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
+      <c r="M5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -350,11 +480,24 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
+      <c r="M6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -365,11 +508,24 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
+      <c r="M7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -380,11 +536,24 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
+      <c r="M8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -395,11 +564,24 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
+      <c r="M9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -410,11 +592,24 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
+      <c r="M10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -430,6 +625,19 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
+      <c r="M11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
